--- a/Pasta1.xlsx
+++ b/Pasta1.xlsx
@@ -5,9 +5,10 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Excel Modulo 1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Odair\Desktop\vbaexcelyoutube\basico\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="4bP9OE8+UsvEs8G8wlmLTiR4oVqxR/3I8sqxy7l7MgQ/YOPy10IafImYuMCC7I2o9dQtH/rwxKjDQb/DzJMe2w==" workbookSaltValue="WHtE7BCNcUr0MvV1dBvzlg==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8340"/>
   </bookViews>
@@ -24,9 +25,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
-    <t>Bem-vindo</t>
+    <t>Produto 1</t>
+  </si>
+  <si>
+    <t>Produto 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">valor </t>
+  </si>
+  <si>
+    <t xml:space="preserve">desconto </t>
   </si>
 </sst>
 </file>
@@ -62,8 +72,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -344,20 +355,53 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A7"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P5" sqref="P5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H4" t="s">
+        <v>2</v>
+      </c>
+      <c r="I4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G5" t="s">
         <v>0</v>
+      </c>
+      <c r="H5">
+        <v>125</v>
+      </c>
+      <c r="I5">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>240</v>
+      </c>
+      <c r="I6">
+        <v>65</v>
       </c>
     </row>
   </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="ulJEll2B0OgXv+08nMoTwvvm/HnNk1sCSztRRHBG26GWdw/0/C4eMFkpvp8oAYvjRf4K3JImucxpfRs+PjIcbA==" saltValue="AYGWaKMwgQo7do8PBJ8A/A==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <protectedRanges>
+    <protectedRange algorithmName="SHA-512" hashValue="yAZB0eWzeGSt6JZ4OBqB6cja1oEK+dPRirt36YZTF1GF1ZXpiGca1ObFgnefp8YrvGhTZTccZzfxFhbQ/cjcag==" saltValue="hRgMMllzu5xS4M57o9Jwug==" spinCount="100000" sqref="I5:I6" name="Intervalo1"/>
+  </protectedRanges>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
 </worksheet>
 </file>